--- a/PPData.xlsx
+++ b/PPData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P165"/>
+  <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>Standard deviation/Mean of ladder by country-year</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -561,6 +566,9 @@
       <c r="P2" t="n">
         <v>0.4975390149226481</v>
       </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -613,6 +621,9 @@
       <c r="P3" t="n">
         <v>0.5243638943013288</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -665,6 +676,9 @@
       <c r="P4" t="n">
         <v>-0.5453029923025297</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -717,6 +731,9 @@
       <c r="P5" t="n">
         <v>1.150541232020434</v>
       </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -769,6 +786,9 @@
       <c r="P6" t="n">
         <v>-0.5524878955984742</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -821,6 +841,9 @@
       <c r="P7" t="n">
         <v>0.7821580038931496</v>
       </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -873,6 +896,9 @@
       <c r="P8" t="n">
         <v>-1.29820402419803</v>
       </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +951,9 @@
       <c r="P9" t="n">
         <v>-1.207361414866516</v>
       </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +1006,9 @@
       <c r="P10" t="n">
         <v>-0.2504119670622701</v>
       </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1029,6 +1061,9 @@
       <c r="P11" t="n">
         <v>-0.2618480438707389</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1081,6 +1116,9 @@
       <c r="P12" t="n">
         <v>0.1501694790321481</v>
       </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1133,6 +1171,9 @@
       <c r="P13" t="n">
         <v>-0.4102519492079214</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1185,6 +1226,9 @@
       <c r="P14" t="n">
         <v>-1.39036278448741</v>
       </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1237,6 +1281,9 @@
       <c r="P15" t="n">
         <v>-0.1656585327011358</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1289,6 +1336,9 @@
       <c r="P16" t="n">
         <v>0.9706639574888892</v>
       </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1341,6 +1391,9 @@
       <c r="P17" t="n">
         <v>-1.248684480027427</v>
       </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1393,6 +1446,9 @@
       <c r="P18" t="n">
         <v>-0.4432698639500476</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1445,6 +1501,9 @@
       <c r="P19" t="n">
         <v>0.5300467565134546</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1497,6 +1556,9 @@
       <c r="P20" t="n">
         <v>1.385870721748084</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1549,6 +1611,9 @@
       <c r="P21" t="n">
         <v>-0.4030103362416669</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1601,6 +1666,9 @@
       <c r="P22" t="n">
         <v>0.8750641378741997</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1653,6 +1721,9 @@
       <c r="P23" t="n">
         <v>0.3841821682555037</v>
       </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1705,6 +1776,9 @@
       <c r="P24" t="n">
         <v>1.15666110319588</v>
       </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1757,6 +1831,9 @@
       <c r="P25" t="n">
         <v>0.5557999633051984</v>
       </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1809,6 +1886,9 @@
       <c r="P26" t="n">
         <v>0.5850267078631353</v>
       </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1861,6 +1941,9 @@
       <c r="P27" t="n">
         <v>-1.340884711327625</v>
       </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1913,6 +1996,9 @@
       <c r="P28" t="n">
         <v>1.282981111510426</v>
       </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1965,6 +2051,9 @@
       <c r="P29" t="n">
         <v>0.4226152567485389</v>
       </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2017,6 +2106,9 @@
       <c r="P30" t="n">
         <v>-0.425886105034895</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2069,6 +2161,9 @@
       <c r="P31" t="n">
         <v>0.01629110904311078</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2121,6 +2216,9 @@
       <c r="P32" t="n">
         <v>0.00772800097969996</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2173,6 +2271,9 @@
       <c r="P33" t="n">
         <v>0.0636841203875475</v>
       </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2225,6 +2326,9 @@
       <c r="P34" t="n">
         <v>1.791156131376576</v>
       </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2277,6 +2381,9 @@
       <c r="P35" t="n">
         <v>-0.09597333260783338</v>
       </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2329,6 +2436,9 @@
       <c r="P36" t="n">
         <v>-0.7991498804195978</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2381,6 +2491,9 @@
       <c r="P37" t="n">
         <v>-0.2522612453019941</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2433,6 +2546,9 @@
       <c r="P38" t="n">
         <v>0.08733743062961237</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2485,6 +2601,9 @@
       <c r="P39" t="n">
         <v>-0.009410997989043719</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2537,6 +2656,9 @@
       <c r="P40" t="n">
         <v>-0.7405659855074543</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2589,6 +2711,9 @@
       <c r="P41" t="n">
         <v>-1.576414098573574</v>
       </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2641,6 +2766,9 @@
       <c r="P42" t="n">
         <v>0.05026206130016486</v>
       </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2693,6 +2821,9 @@
       <c r="P43" t="n">
         <v>1.801320791322645</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2745,6 +2876,9 @@
       <c r="P44" t="n">
         <v>0.0676561738431528</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2797,6 +2931,9 @@
       <c r="P45" t="n">
         <v>0.9680671763593918</v>
       </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2849,6 +2986,9 @@
       <c r="P46" t="n">
         <v>0.1433655750169008</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2901,6 +3041,9 @@
       <c r="P47" t="n">
         <v>-0.4213166122867292</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2953,6 +3096,9 @@
       <c r="P48" t="n">
         <v>0.3008574705292514</v>
       </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3005,6 +3151,9 @@
       <c r="P49" t="n">
         <v>-1.545023640056151</v>
       </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3057,6 +3206,9 @@
       <c r="P50" t="n">
         <v>-1.001028068861614</v>
       </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3109,6 +3261,9 @@
       <c r="P51" t="n">
         <v>0.806287792394802</v>
       </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3161,6 +3316,9 @@
       <c r="P52" t="n">
         <v>0.8081047286352688</v>
       </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3213,6 +3371,9 @@
       <c r="P53" t="n">
         <v>-1.016175479723436</v>
       </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3265,6 +3426,9 @@
       <c r="P54" t="n">
         <v>0.5956221376536824</v>
       </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3317,6 +3481,9 @@
       <c r="P55" t="n">
         <v>0.2732833878109368</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3369,6 +3536,9 @@
       <c r="P56" t="n">
         <v>0.1210267962127442</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3421,6 +3591,9 @@
       <c r="P57" t="n">
         <v>1.013505489540618</v>
       </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3473,6 +3646,9 @@
       <c r="P58" t="n">
         <v>-0.6647586532248581</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3525,6 +3701,9 @@
       <c r="P59" t="n">
         <v>1.045205187208825</v>
       </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3577,6 +3756,9 @@
       <c r="P60" t="n">
         <v>1.280216052814382</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3629,6 +3811,9 @@
       <c r="P61" t="n">
         <v>-0.342884525838973</v>
       </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3681,6 +3866,9 @@
       <c r="P62" t="n">
         <v>0.1929118221044001</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3733,6 +3921,9 @@
       <c r="P63" t="n">
         <v>-1.371008358602475</v>
       </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3785,6 +3976,9 @@
       <c r="P64" t="n">
         <v>0.2520223179503688</v>
       </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3837,6 +4031,9 @@
       <c r="P65" t="n">
         <v>-0.4477152032472702</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3889,6 +4086,9 @@
       <c r="P66" t="n">
         <v>0.9171289578604317</v>
       </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3941,6 +4141,9 @@
       <c r="P67" t="n">
         <v>1.021023237442268</v>
       </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3993,6 +4196,9 @@
       <c r="P68" t="n">
         <v>-1.10829662795575</v>
       </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4045,6 +4251,9 @@
       <c r="P69" t="n">
         <v>-1.220432691225371</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4097,6 +4306,9 @@
       <c r="P70" t="n">
         <v>-0.6793054588479324</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4149,6 +4361,9 @@
       <c r="P71" t="n">
         <v>0.8082981654581906</v>
       </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4201,6 +4416,9 @@
       <c r="P72" t="n">
         <v>0.4716054292720637</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4253,6 +4471,9 @@
       <c r="P73" t="n">
         <v>-0.5965914817422194</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4305,6 +4526,9 @@
       <c r="P74" t="n">
         <v>0.3599465669021877</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4357,6 +4581,9 @@
       <c r="P75" t="n">
         <v>-0.4669269138252917</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4409,6 +4636,9 @@
       <c r="P76" t="n">
         <v>0.3245616006675318</v>
       </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4461,6 +4691,9 @@
       <c r="P77" t="n">
         <v>0.01907621478066408</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4513,6 +4746,9 @@
       <c r="P78" t="n">
         <v>-0.7520189074570323</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4565,6 +4801,9 @@
       <c r="P79" t="n">
         <v>-0.3699949343433886</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4617,6 +4856,9 @@
       <c r="P80" t="n">
         <v>-1.316236427525662</v>
       </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4669,6 +4911,9 @@
       <c r="P81" t="n">
         <v>-0.3076111986187765</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4721,6 +4966,9 @@
       <c r="P82" t="n">
         <v>0.6767135051098293</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4773,6 +5021,9 @@
       <c r="P83" t="n">
         <v>2.431790942141618</v>
       </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4825,6 +5076,9 @@
       <c r="P84" t="n">
         <v>2.01026299472626</v>
       </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4877,6 +5131,9 @@
       <c r="P85" t="n">
         <v>0.6103913299572917</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4929,6 +5186,9 @@
       <c r="P86" t="n">
         <v>-0.393922826114498</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4981,6 +5241,9 @@
       <c r="P87" t="n">
         <v>-1.406987923845696</v>
       </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5033,6 +5296,9 @@
       <c r="P88" t="n">
         <v>0.6899414048658337</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5085,6 +5351,9 @@
       <c r="P89" t="n">
         <v>0.08790300125419385</v>
       </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5137,6 +5406,9 @@
       <c r="P90" t="n">
         <v>1.770313557296068</v>
       </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5189,6 +5461,9 @@
       <c r="P91" t="n">
         <v>-0.7435183670982263</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5241,6 +5516,9 @@
       <c r="P92" t="n">
         <v>0.3744459698596189</v>
       </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5293,6 +5571,9 @@
       <c r="P93" t="n">
         <v>-0.4832436327154755</v>
       </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5345,6 +5626,9 @@
       <c r="P94" t="n">
         <v>-0.01324215505211601</v>
       </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5397,6 +5681,9 @@
       <c r="P95" t="n">
         <v>-0.2120876293936742</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5449,6 +5736,9 @@
       <c r="P96" t="n">
         <v>-0.6040724786440929</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5501,6 +5791,9 @@
       <c r="P97" t="n">
         <v>-0.3828599836621761</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5553,6 +5846,9 @@
       <c r="P98" t="n">
         <v>-0.2902685046820739</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5605,6 +5901,9 @@
       <c r="P99" t="n">
         <v>0.4128084885310577</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5657,6 +5956,9 @@
       <c r="P100" t="n">
         <v>-0.1536934647280767</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5709,6 +6011,9 @@
       <c r="P101" t="n">
         <v>0.3923290450709843</v>
       </c>
+      <c r="Q101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5761,6 +6066,9 @@
       <c r="P102" t="n">
         <v>-0.03107323336069009</v>
       </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5813,6 +6121,9 @@
       <c r="P103" t="n">
         <v>0.6020486172641969</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5865,6 +6176,9 @@
       <c r="P104" t="n">
         <v>0.2024701988683308</v>
       </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5917,6 +6231,9 @@
       <c r="P105" t="n">
         <v>-1.808515279334905</v>
       </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5969,6 +6286,9 @@
       <c r="P106" t="n">
         <v>-1.354495182735537</v>
       </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6021,6 +6341,9 @@
       <c r="P107" t="n">
         <v>0.9684350235102138</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6073,6 +6396,9 @@
       <c r="P108" t="n">
         <v>0.09954840565966286</v>
       </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6125,6 +6451,9 @@
       <c r="P109" t="n">
         <v>0.07565304915816423</v>
       </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6177,6 +6506,9 @@
       <c r="P110" t="n">
         <v>0.2313679647544356</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6229,6 +6561,9 @@
       <c r="P111" t="n">
         <v>-1.438936231886463</v>
       </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6281,6 +6616,9 @@
       <c r="P112" t="n">
         <v>-0.6694819225340828</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6333,6 +6671,9 @@
       <c r="P113" t="n">
         <v>0.4642847743284536</v>
       </c>
+      <c r="Q113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6385,6 +6726,9 @@
       <c r="P114" t="n">
         <v>0.9875060148327556</v>
       </c>
+      <c r="Q114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6437,6 +6781,9 @@
       <c r="P115" t="n">
         <v>-0.3628293230504947</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6489,6 +6836,9 @@
       <c r="P116" t="n">
         <v>-0.1666578385460641</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6541,6 +6891,9 @@
       <c r="P117" t="n">
         <v>0.1568054018067737</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6593,6 +6946,9 @@
       <c r="P118" t="n">
         <v>0.8028851015478708</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6645,6 +7001,9 @@
       <c r="P119" t="n">
         <v>-0.4271261318380181</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6697,6 +7056,9 @@
       <c r="P120" t="n">
         <v>0.3513574559095672</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6749,6 +7111,9 @@
       <c r="P121" t="n">
         <v>-0.5818522254689033</v>
       </c>
+      <c r="Q121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6801,6 +7166,9 @@
       <c r="P122" t="n">
         <v>0.3497767251469929</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6853,6 +7221,9 @@
       <c r="P123" t="n">
         <v>-0.1300638862416284</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6905,6 +7276,9 @@
       <c r="P124" t="n">
         <v>0.4823704411217321</v>
       </c>
+      <c r="Q124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6957,6 +7331,9 @@
       <c r="P125" t="n">
         <v>-0.5870834258616456</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7009,6 +7386,9 @@
       <c r="P126" t="n">
         <v>-0.1718628863979297</v>
       </c>
+      <c r="Q126" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7061,6 +7441,9 @@
       <c r="P127" t="n">
         <v>0.5110340742310175</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7113,6 +7496,9 @@
       <c r="P128" t="n">
         <v>1.839248075957206</v>
       </c>
+      <c r="Q128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7165,6 +7551,9 @@
       <c r="P129" t="n">
         <v>-1.397387034090218</v>
       </c>
+      <c r="Q129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7217,6 +7606,9 @@
       <c r="P130" t="n">
         <v>-0.5122808649910471</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7269,6 +7661,9 @@
       <c r="P131" t="n">
         <v>-0.231271577524991</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7321,6 +7716,9 @@
       <c r="P132" t="n">
         <v>0.5892716518145038</v>
       </c>
+      <c r="Q132" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7373,6 +7771,9 @@
       <c r="P133" t="n">
         <v>-0.04207631517097379</v>
       </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7425,6 +7826,9 @@
       <c r="P134" t="n">
         <v>0.3645921277007213</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7477,6 +7881,9 @@
       <c r="P135" t="n">
         <v>-0.2034750783618483</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7529,6 +7936,9 @@
       <c r="P136" t="n">
         <v>4.194288633211574</v>
       </c>
+      <c r="Q136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7581,6 +7991,9 @@
       <c r="P137" t="n">
         <v>-0.8301564651631469</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7633,6 +8046,9 @@
       <c r="P138" t="n">
         <v>0.4433688293467439</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7685,6 +8101,9 @@
       <c r="P139" t="n">
         <v>0.5143519031277165</v>
       </c>
+      <c r="Q139" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7737,6 +8156,9 @@
       <c r="P140" t="n">
         <v>-0.6335140950570952</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7789,6 +8211,9 @@
       <c r="P141" t="n">
         <v>0.4610650390589104</v>
       </c>
+      <c r="Q141" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7841,6 +8266,9 @@
       <c r="P142" t="n">
         <v>-1.437662956919402</v>
       </c>
+      <c r="Q142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7893,6 +8321,9 @@
       <c r="P143" t="n">
         <v>-1.462459549871549</v>
       </c>
+      <c r="Q143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7945,6 +8376,9 @@
       <c r="P144" t="n">
         <v>2.085609361646645</v>
       </c>
+      <c r="Q144" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7997,6 +8431,9 @@
       <c r="P145" t="n">
         <v>-0.6401867701485018</v>
       </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -8049,6 +8486,9 @@
       <c r="P146" t="n">
         <v>-0.4791304451480948</v>
       </c>
+      <c r="Q146" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -8101,6 +8541,9 @@
       <c r="P147" t="n">
         <v>1.447039133188921</v>
       </c>
+      <c r="Q147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -8153,6 +8596,9 @@
       <c r="P148" t="n">
         <v>-0.7937842476222101</v>
       </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -8205,6 +8651,9 @@
       <c r="P149" t="n">
         <v>2.06089630438396</v>
       </c>
+      <c r="Q149" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -8257,6 +8706,9 @@
       <c r="P150" t="n">
         <v>-0.3924288515491716</v>
       </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -8309,6 +8761,9 @@
       <c r="P151" t="n">
         <v>0.1515443157591455</v>
       </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -8361,6 +8816,9 @@
       <c r="P152" t="n">
         <v>0.4057970773477456</v>
       </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -8413,6 +8871,9 @@
       <c r="P153" t="n">
         <v>-0.7487739210794845</v>
       </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -8465,6 +8926,9 @@
       <c r="P154" t="n">
         <v>0.8455108984483378</v>
       </c>
+      <c r="Q154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -8517,6 +8981,9 @@
       <c r="P155" t="n">
         <v>0.2767868681924432</v>
       </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -8569,6 +9036,9 @@
       <c r="P156" t="n">
         <v>-0.8377801436566287</v>
       </c>
+      <c r="Q156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -8621,6 +9091,9 @@
       <c r="P157" t="n">
         <v>-1.026182761817142</v>
       </c>
+      <c r="Q157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8673,6 +9146,9 @@
       <c r="P158" t="n">
         <v>-0.9391134573773222</v>
       </c>
+      <c r="Q158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8725,6 +9201,9 @@
       <c r="P159" t="n">
         <v>-0.310539768775183</v>
       </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8777,6 +9256,9 @@
       <c r="P160" t="n">
         <v>-0.312794721355417</v>
       </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8829,6 +9311,9 @@
       <c r="P161" t="n">
         <v>-0.03800350497419546</v>
       </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8881,6 +9366,9 @@
       <c r="P162" t="n">
         <v>-0.808245355787643</v>
       </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8933,6 +9421,9 @@
       <c r="P163" t="n">
         <v>1.532035852451858</v>
       </c>
+      <c r="Q163" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8985,6 +9476,9 @@
       <c r="P164" t="n">
         <v>0.864681035684322</v>
       </c>
+      <c r="Q164" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -9036,6 +9530,9 @@
       </c>
       <c r="P165" t="n">
         <v>0.9880729455933349</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
